--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/B2m-Gm11127.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/B2m-Gm11127.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1790.094238333333</v>
+        <v>1756.397745666666</v>
       </c>
       <c r="H2">
-        <v>5370.282715</v>
+        <v>5269.193236999999</v>
       </c>
       <c r="I2">
-        <v>0.1978827026976269</v>
+        <v>0.1551657201809291</v>
       </c>
       <c r="J2">
-        <v>0.1978827026976269</v>
+        <v>0.1551657201809291</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.359983</v>
+        <v>0.5189786666666666</v>
       </c>
       <c r="N2">
-        <v>1.079949</v>
+        <v>1.556936</v>
       </c>
       <c r="O2">
-        <v>0.9497806167005701</v>
+        <v>0.5400805124211483</v>
       </c>
       <c r="P2">
-        <v>0.9497806167005701</v>
+        <v>0.5400805124211483</v>
       </c>
       <c r="Q2">
-        <v>644.4034941979484</v>
+        <v>911.5329601824255</v>
       </c>
       <c r="R2">
-        <v>5799.631447781536</v>
+        <v>8203.796641641831</v>
       </c>
       <c r="S2">
-        <v>0.1879451554025277</v>
+        <v>0.08380198166551273</v>
       </c>
       <c r="T2">
-        <v>0.1879451554025277</v>
+        <v>0.08380198166551273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1790.094238333333</v>
+        <v>1756.397745666666</v>
       </c>
       <c r="H3">
-        <v>5370.282715</v>
+        <v>5269.193236999999</v>
       </c>
       <c r="I3">
-        <v>0.1978827026976269</v>
+        <v>0.1551657201809291</v>
       </c>
       <c r="J3">
-        <v>0.1978827026976269</v>
+        <v>0.1551657201809291</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.019034</v>
+        <v>0.3533043333333333</v>
       </c>
       <c r="N3">
-        <v>0.057102</v>
+        <v>1.059913</v>
       </c>
       <c r="O3">
-        <v>0.05021938329942984</v>
+        <v>0.367669805413862</v>
       </c>
       <c r="P3">
-        <v>0.05021938329942984</v>
+        <v>0.367669805413862</v>
       </c>
       <c r="Q3">
-        <v>34.07265373243666</v>
+        <v>620.5429346009311</v>
       </c>
       <c r="R3">
-        <v>306.65388359193</v>
+        <v>5584.88641140838</v>
       </c>
       <c r="S3">
-        <v>0.009937547295099247</v>
+        <v>0.05704975014582397</v>
       </c>
       <c r="T3">
-        <v>0.009937547295099247</v>
+        <v>0.05704975014582397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1072.362365666667</v>
+        <v>1756.397745666666</v>
       </c>
       <c r="H4">
-        <v>3217.087097</v>
+        <v>5269.193236999999</v>
       </c>
       <c r="I4">
-        <v>0.1185423418752029</v>
+        <v>0.1551657201809291</v>
       </c>
       <c r="J4">
-        <v>0.1185423418752029</v>
+        <v>0.1551657201809291</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.359983</v>
+        <v>0.001107</v>
       </c>
       <c r="N4">
-        <v>1.079949</v>
+        <v>0.003321</v>
       </c>
       <c r="O4">
-        <v>0.9497806167005701</v>
+        <v>0.001152010989373124</v>
       </c>
       <c r="P4">
-        <v>0.9497806167005701</v>
+        <v>0.001152010989373124</v>
       </c>
       <c r="Q4">
-        <v>386.0322214797836</v>
+        <v>1.944332304453</v>
       </c>
       <c r="R4">
-        <v>3474.289993318053</v>
+        <v>17.498990740077</v>
       </c>
       <c r="S4">
-        <v>0.11258921857136</v>
+        <v>0.0001787526148224255</v>
       </c>
       <c r="T4">
-        <v>0.11258921857136</v>
+        <v>0.0001787526148224255</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1072.362365666667</v>
+        <v>1756.397745666666</v>
       </c>
       <c r="H5">
-        <v>3217.087097</v>
+        <v>5269.193236999999</v>
       </c>
       <c r="I5">
-        <v>0.1185423418752029</v>
+        <v>0.1551657201809291</v>
       </c>
       <c r="J5">
-        <v>0.1185423418752029</v>
+        <v>0.1551657201809291</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.019034</v>
+        <v>0.08753833333333333</v>
       </c>
       <c r="N5">
-        <v>0.057102</v>
+        <v>0.262615</v>
       </c>
       <c r="O5">
-        <v>0.05021938329942984</v>
+        <v>0.09109767117561665</v>
       </c>
       <c r="P5">
-        <v>0.05021938329942984</v>
+        <v>0.09109767117561664</v>
       </c>
       <c r="Q5">
-        <v>20.41134526809933</v>
+        <v>153.7521313260839</v>
       </c>
       <c r="R5">
-        <v>183.702107412894</v>
+        <v>1383.769181934755</v>
       </c>
       <c r="S5">
-        <v>0.005953123303842867</v>
+        <v>0.01413523575477003</v>
       </c>
       <c r="T5">
-        <v>0.005953123303842865</v>
+        <v>0.01413523575477003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,61 +788,61 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2676.771728333333</v>
+        <v>1072.362365666667</v>
       </c>
       <c r="H6">
-        <v>8030.315184999999</v>
+        <v>3217.087097</v>
       </c>
       <c r="I6">
-        <v>0.2958988486552321</v>
+        <v>0.09473587584253929</v>
       </c>
       <c r="J6">
-        <v>0.2958988486552321</v>
+        <v>0.09473587584253929</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.359983</v>
+        <v>0.5189786666666666</v>
       </c>
       <c r="N6">
-        <v>1.079949</v>
+        <v>1.556936</v>
       </c>
       <c r="O6">
-        <v>0.9497806167005701</v>
+        <v>0.5400805124211483</v>
       </c>
       <c r="P6">
-        <v>0.9497806167005701</v>
+        <v>0.5400805124211483</v>
       </c>
       <c r="Q6">
-        <v>963.5923170806183</v>
+        <v>556.533190717199</v>
       </c>
       <c r="R6">
-        <v>8672.330853725565</v>
+        <v>5008.798716454792</v>
       </c>
       <c r="S6">
-        <v>0.2810389909567551</v>
+        <v>0.0511650003697049</v>
       </c>
       <c r="T6">
-        <v>0.281038990956755</v>
+        <v>0.0511650003697049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -850,61 +850,61 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2676.771728333333</v>
+        <v>1072.362365666667</v>
       </c>
       <c r="H7">
-        <v>8030.315184999999</v>
+        <v>3217.087097</v>
       </c>
       <c r="I7">
-        <v>0.2958988486552321</v>
+        <v>0.09473587584253929</v>
       </c>
       <c r="J7">
-        <v>0.2958988486552321</v>
+        <v>0.09473587584253929</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.019034</v>
+        <v>0.3533043333333333</v>
       </c>
       <c r="N7">
-        <v>0.057102</v>
+        <v>1.059913</v>
       </c>
       <c r="O7">
-        <v>0.05021938329942984</v>
+        <v>0.367669805413862</v>
       </c>
       <c r="P7">
-        <v>0.05021938329942984</v>
+        <v>0.367669805413862</v>
       </c>
       <c r="Q7">
-        <v>50.94967307709666</v>
+        <v>378.8702706936178</v>
       </c>
       <c r="R7">
-        <v>458.54705769387</v>
+        <v>3409.832436242561</v>
       </c>
       <c r="S7">
-        <v>0.01485985769847708</v>
+        <v>0.03483152103673821</v>
       </c>
       <c r="T7">
-        <v>0.01485985769847708</v>
+        <v>0.03483152103673821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.77148966666668</v>
+        <v>1072.362365666667</v>
       </c>
       <c r="H8">
-        <v>293.314469</v>
+        <v>3217.087097</v>
       </c>
       <c r="I8">
-        <v>0.01080797100382067</v>
+        <v>0.09473587584253929</v>
       </c>
       <c r="J8">
-        <v>0.01080797100382067</v>
+        <v>0.09473587584253929</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.359983</v>
+        <v>0.001107</v>
       </c>
       <c r="N8">
-        <v>1.079949</v>
+        <v>0.003321</v>
       </c>
       <c r="O8">
-        <v>0.9497806167005701</v>
+        <v>0.001152010989373124</v>
       </c>
       <c r="P8">
-        <v>0.9497806167005701</v>
+        <v>0.001152010989373124</v>
       </c>
       <c r="Q8">
-        <v>35.19607416467567</v>
+        <v>1.187105138793</v>
       </c>
       <c r="R8">
-        <v>316.7646674820811</v>
+        <v>10.683946249137</v>
       </c>
       <c r="S8">
-        <v>0.01026520136529067</v>
+        <v>0.0001091367700584931</v>
       </c>
       <c r="T8">
-        <v>0.01026520136529067</v>
+        <v>0.0001091367700584931</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.77148966666668</v>
+        <v>1072.362365666667</v>
       </c>
       <c r="H9">
-        <v>293.314469</v>
+        <v>3217.087097</v>
       </c>
       <c r="I9">
-        <v>0.01080797100382067</v>
+        <v>0.09473587584253929</v>
       </c>
       <c r="J9">
-        <v>0.01080797100382067</v>
+        <v>0.09473587584253929</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.019034</v>
+        <v>0.08753833333333333</v>
       </c>
       <c r="N9">
-        <v>0.057102</v>
+        <v>0.262615</v>
       </c>
       <c r="O9">
-        <v>0.05021938329942984</v>
+        <v>0.09109767117561665</v>
       </c>
       <c r="P9">
-        <v>0.05021938329942984</v>
+        <v>0.09109767117561664</v>
       </c>
       <c r="Q9">
-        <v>1.860982534315333</v>
+        <v>93.87281421985055</v>
       </c>
       <c r="R9">
-        <v>16.748842808838</v>
+        <v>844.8553279786549</v>
       </c>
       <c r="S9">
-        <v>0.0005427696385299935</v>
+        <v>0.008630217666037689</v>
       </c>
       <c r="T9">
-        <v>0.0005427696385299935</v>
+        <v>0.008630217666037688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,108 +1036,728 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3409.239257666667</v>
+        <v>4891.182047333333</v>
       </c>
       <c r="H10">
-        <v>10227.717773</v>
+        <v>14673.546142</v>
       </c>
       <c r="I10">
-        <v>0.3768681357681174</v>
+        <v>0.4321024590147375</v>
       </c>
       <c r="J10">
-        <v>0.3768681357681174</v>
+        <v>0.4321024590147375</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.359983</v>
+        <v>0.5189786666666666</v>
       </c>
       <c r="N10">
-        <v>1.079949</v>
+        <v>1.556936</v>
       </c>
       <c r="O10">
-        <v>0.9497806167005701</v>
+        <v>0.5400805124211483</v>
       </c>
       <c r="P10">
-        <v>0.9497806167005701</v>
+        <v>0.5400805124211483</v>
       </c>
       <c r="Q10">
-        <v>1227.26817569262</v>
+        <v>2538.419137348989</v>
       </c>
       <c r="R10">
-        <v>11045.41358123358</v>
+        <v>22845.77223614091</v>
       </c>
       <c r="S10">
-        <v>0.3579420504046367</v>
+        <v>0.2333701174831176</v>
       </c>
       <c r="T10">
-        <v>0.3579420504046367</v>
+        <v>0.2333701174831176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4891.182047333333</v>
+      </c>
+      <c r="H11">
+        <v>14673.546142</v>
+      </c>
+      <c r="I11">
+        <v>0.4321024590147375</v>
+      </c>
+      <c r="J11">
+        <v>0.4321024590147375</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.059913</v>
+      </c>
+      <c r="O11">
+        <v>0.367669805413862</v>
+      </c>
+      <c r="P11">
+        <v>0.367669805413862</v>
+      </c>
+      <c r="Q11">
+        <v>1728.075812445071</v>
+      </c>
+      <c r="R11">
+        <v>15552.68231200564</v>
+      </c>
+      <c r="S11">
+        <v>0.1588710270247998</v>
+      </c>
+      <c r="T11">
+        <v>0.1588710270247998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4891.182047333333</v>
+      </c>
+      <c r="H12">
+        <v>14673.546142</v>
+      </c>
+      <c r="I12">
+        <v>0.4321024590147375</v>
+      </c>
+      <c r="J12">
+        <v>0.4321024590147375</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.001107</v>
+      </c>
+      <c r="N12">
+        <v>0.003321</v>
+      </c>
+      <c r="O12">
+        <v>0.001152010989373124</v>
+      </c>
+      <c r="P12">
+        <v>0.001152010989373124</v>
+      </c>
+      <c r="Q12">
+        <v>5.414538526398</v>
+      </c>
+      <c r="R12">
+        <v>48.730846737582</v>
+      </c>
+      <c r="S12">
+        <v>0.0004977867813201275</v>
+      </c>
+      <c r="T12">
+        <v>0.0004977867813201274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4891.182047333333</v>
+      </c>
+      <c r="H13">
+        <v>14673.546142</v>
+      </c>
+      <c r="I13">
+        <v>0.4321024590147375</v>
+      </c>
+      <c r="J13">
+        <v>0.4321024590147375</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.08753833333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.262615</v>
+      </c>
+      <c r="O13">
+        <v>0.09109767117561665</v>
+      </c>
+      <c r="P13">
+        <v>0.09109767117561664</v>
+      </c>
+      <c r="Q13">
+        <v>428.1659244534811</v>
+      </c>
+      <c r="R13">
+        <v>3853.49332008133</v>
+      </c>
+      <c r="S13">
+        <v>0.03936352772549993</v>
+      </c>
+      <c r="T13">
+        <v>0.03936352772549992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3409.239257666667</v>
-      </c>
-      <c r="H11">
-        <v>10227.717773</v>
-      </c>
-      <c r="I11">
-        <v>0.3768681357681174</v>
-      </c>
-      <c r="J11">
-        <v>0.3768681357681174</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.019034</v>
-      </c>
-      <c r="N11">
-        <v>0.057102</v>
-      </c>
-      <c r="O11">
-        <v>0.05021938329942984</v>
-      </c>
-      <c r="P11">
-        <v>0.05021938329942984</v>
-      </c>
-      <c r="Q11">
-        <v>64.89146003042733</v>
-      </c>
-      <c r="R11">
-        <v>584.023140273846</v>
-      </c>
-      <c r="S11">
-        <v>0.01892608536348065</v>
-      </c>
-      <c r="T11">
-        <v>0.01892608536348065</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>106.8281123333333</v>
+      </c>
+      <c r="H14">
+        <v>320.484337</v>
+      </c>
+      <c r="I14">
+        <v>0.009437532601409242</v>
+      </c>
+      <c r="J14">
+        <v>0.009437532601409242</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.5189786666666666</v>
+      </c>
+      <c r="N14">
+        <v>1.556936</v>
+      </c>
+      <c r="O14">
+        <v>0.5400805124211483</v>
+      </c>
+      <c r="P14">
+        <v>0.5400805124211483</v>
+      </c>
+      <c r="Q14">
+        <v>55.44151130127021</v>
+      </c>
+      <c r="R14">
+        <v>498.9736017114319</v>
+      </c>
+      <c r="S14">
+        <v>0.005097027443360396</v>
+      </c>
+      <c r="T14">
+        <v>0.005097027443360396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>106.8281123333333</v>
+      </c>
+      <c r="H15">
+        <v>320.484337</v>
+      </c>
+      <c r="I15">
+        <v>0.009437532601409242</v>
+      </c>
+      <c r="J15">
+        <v>0.009437532601409242</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.059913</v>
+      </c>
+      <c r="O15">
+        <v>0.367669805413862</v>
+      </c>
+      <c r="P15">
+        <v>0.367669805413862</v>
+      </c>
+      <c r="Q15">
+        <v>37.74283500918677</v>
+      </c>
+      <c r="R15">
+        <v>339.6855150826809</v>
+      </c>
+      <c r="S15">
+        <v>0.003469895775147115</v>
+      </c>
+      <c r="T15">
+        <v>0.003469895775147115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>106.8281123333333</v>
+      </c>
+      <c r="H16">
+        <v>320.484337</v>
+      </c>
+      <c r="I16">
+        <v>0.009437532601409242</v>
+      </c>
+      <c r="J16">
+        <v>0.009437532601409242</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.001107</v>
+      </c>
+      <c r="N16">
+        <v>0.003321</v>
+      </c>
+      <c r="O16">
+        <v>0.001152010989373124</v>
+      </c>
+      <c r="P16">
+        <v>0.001152010989373124</v>
+      </c>
+      <c r="Q16">
+        <v>0.118258720353</v>
+      </c>
+      <c r="R16">
+        <v>1.064328483177</v>
+      </c>
+      <c r="S16">
+        <v>1.087214126939057E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.087214126939057E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>106.8281123333333</v>
+      </c>
+      <c r="H17">
+        <v>320.484337</v>
+      </c>
+      <c r="I17">
+        <v>0.009437532601409242</v>
+      </c>
+      <c r="J17">
+        <v>0.009437532601409242</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.08753833333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.262615</v>
+      </c>
+      <c r="O17">
+        <v>0.09109767117561665</v>
+      </c>
+      <c r="P17">
+        <v>0.09109767117561664</v>
+      </c>
+      <c r="Q17">
+        <v>9.351554906806109</v>
+      </c>
+      <c r="R17">
+        <v>84.16399416125499</v>
+      </c>
+      <c r="S17">
+        <v>0.0008597372416323412</v>
+      </c>
+      <c r="T17">
+        <v>0.000859737241632341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3492.725708</v>
+      </c>
+      <c r="H18">
+        <v>10478.177124</v>
+      </c>
+      <c r="I18">
+        <v>0.3085584123603848</v>
+      </c>
+      <c r="J18">
+        <v>0.3085584123603848</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5189786666666666</v>
+      </c>
+      <c r="N18">
+        <v>1.556936</v>
+      </c>
+      <c r="O18">
+        <v>0.5400805124211483</v>
+      </c>
+      <c r="P18">
+        <v>0.5400805124211483</v>
+      </c>
+      <c r="Q18">
+        <v>1812.650130970229</v>
+      </c>
+      <c r="R18">
+        <v>16313.85117873206</v>
+      </c>
+      <c r="S18">
+        <v>0.1666463854594526</v>
+      </c>
+      <c r="T18">
+        <v>0.1666463854594526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3492.725708</v>
+      </c>
+      <c r="H19">
+        <v>10478.177124</v>
+      </c>
+      <c r="I19">
+        <v>0.3085584123603848</v>
+      </c>
+      <c r="J19">
+        <v>0.3085584123603848</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.3533043333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.059913</v>
+      </c>
+      <c r="O19">
+        <v>0.367669805413862</v>
+      </c>
+      <c r="P19">
+        <v>0.367669805413862</v>
+      </c>
+      <c r="Q19">
+        <v>1233.995127781134</v>
+      </c>
+      <c r="R19">
+        <v>11105.95615003021</v>
+      </c>
+      <c r="S19">
+        <v>0.1134476114313529</v>
+      </c>
+      <c r="T19">
+        <v>0.1134476114313529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3492.725708</v>
+      </c>
+      <c r="H20">
+        <v>10478.177124</v>
+      </c>
+      <c r="I20">
+        <v>0.3085584123603848</v>
+      </c>
+      <c r="J20">
+        <v>0.3085584123603848</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.001107</v>
+      </c>
+      <c r="N20">
+        <v>0.003321</v>
+      </c>
+      <c r="O20">
+        <v>0.001152010989373124</v>
+      </c>
+      <c r="P20">
+        <v>0.001152010989373124</v>
+      </c>
+      <c r="Q20">
+        <v>3.866447358756</v>
+      </c>
+      <c r="R20">
+        <v>34.798026228804</v>
+      </c>
+      <c r="S20">
+        <v>0.0003554626819026873</v>
+      </c>
+      <c r="T20">
+        <v>0.0003554626819026872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3492.725708</v>
+      </c>
+      <c r="H21">
+        <v>10478.177124</v>
+      </c>
+      <c r="I21">
+        <v>0.3085584123603848</v>
+      </c>
+      <c r="J21">
+        <v>0.3085584123603848</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.08753833333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.262615</v>
+      </c>
+      <c r="O21">
+        <v>0.09109767117561665</v>
+      </c>
+      <c r="P21">
+        <v>0.09109767117561664</v>
+      </c>
+      <c r="Q21">
+        <v>305.7473872688066</v>
+      </c>
+      <c r="R21">
+        <v>2751.72648541926</v>
+      </c>
+      <c r="S21">
+        <v>0.02810895278767667</v>
+      </c>
+      <c r="T21">
+        <v>0.02810895278767666</v>
       </c>
     </row>
   </sheetData>
